--- a/tracklets/005.xlsx
+++ b/tracklets/005.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10215"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/as16542/OneDrive - University of Bristol/Repositories/Metric Learning Open Cows/tracklets/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57344EC9-ECF5-D042-851A-C2CE9C23BD06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="20" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -568,8 +574,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -609,6 +615,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -629,7 +643,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1" descr="000088.jpg"/>
+        <xdr:cNvPr id="2" name="Picture 1" descr="000088.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -642,8 +662,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="0"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="0"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -667,7 +687,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2" descr="000079.jpg"/>
+        <xdr:cNvPr id="3" name="Picture 2" descr="000079.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000003000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -680,8 +706,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="1162050"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="1168400"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -705,7 +731,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3" descr="000071.jpg"/>
+        <xdr:cNvPr id="4" name="Picture 3" descr="000071.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -718,8 +750,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="2324100"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="2336800"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -743,7 +775,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Picture 4" descr="000165.jpg"/>
+        <xdr:cNvPr id="5" name="Picture 4" descr="000165.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -781,7 +819,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="Picture 5" descr="000116.jpg"/>
+        <xdr:cNvPr id="6" name="Picture 5" descr="000116.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000006000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -794,8 +838,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="4648200"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="4673600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -819,7 +863,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="7" name="Picture 6" descr="000053.jpg"/>
+        <xdr:cNvPr id="7" name="Picture 6" descr="000053.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -857,7 +907,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="8" name="Picture 7" descr="000077.jpg"/>
+        <xdr:cNvPr id="8" name="Picture 7" descr="000077.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000008000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -895,7 +951,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8" descr="000107.jpg"/>
+        <xdr:cNvPr id="9" name="Picture 8" descr="000107.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000009000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -933,7 +995,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Picture 9" descr="000148.jpg"/>
+        <xdr:cNvPr id="10" name="Picture 9" descr="000148.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -971,7 +1039,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Picture 10" descr="000124.jpg"/>
+        <xdr:cNvPr id="11" name="Picture 10" descr="000124.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -984,8 +1058,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2047875" y="10458450"/>
-          <a:ext cx="1181100" cy="1181100"/>
+          <a:off x="2336800" y="10515600"/>
+          <a:ext cx="1346200" cy="1187450"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1009,7 +1083,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="12" name="Picture 11" descr="000144.jpg"/>
+        <xdr:cNvPr id="12" name="Picture 11" descr="000144.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1047,7 +1127,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="13" name="Picture 12" descr="000147.jpg"/>
+        <xdr:cNvPr id="13" name="Picture 12" descr="000147.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1085,7 +1171,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="14" name="Picture 13" descr="000066.jpg"/>
+        <xdr:cNvPr id="14" name="Picture 13" descr="000066.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1123,7 +1215,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="15" name="Picture 14" descr="000174.jpg"/>
+        <xdr:cNvPr id="15" name="Picture 14" descr="000174.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00000F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1161,7 +1259,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Picture 15" descr="000095.jpg"/>
+        <xdr:cNvPr id="16" name="Picture 15" descr="000095.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000010000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1199,7 +1303,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="17" name="Picture 16" descr="000056.jpg"/>
+        <xdr:cNvPr id="17" name="Picture 16" descr="000056.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000011000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1237,7 +1347,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="18" name="Picture 17" descr="000158.jpg"/>
+        <xdr:cNvPr id="18" name="Picture 17" descr="000158.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000012000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1275,7 +1391,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="19" name="Picture 18" descr="000177.jpg"/>
+        <xdr:cNvPr id="19" name="Picture 18" descr="000177.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000013000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1313,7 +1435,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Picture 19" descr="000009.jpg"/>
+        <xdr:cNvPr id="20" name="Picture 19" descr="000009.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1351,7 +1479,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Picture 20" descr="000168.jpg"/>
+        <xdr:cNvPr id="21" name="Picture 20" descr="000168.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1389,7 +1523,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Picture 21" descr="000146.jpg"/>
+        <xdr:cNvPr id="22" name="Picture 21" descr="000146.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1427,7 +1567,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Picture 22" descr="000015.jpg"/>
+        <xdr:cNvPr id="23" name="Picture 22" descr="000015.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1465,7 +1611,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Picture 23" descr="000120.jpg"/>
+        <xdr:cNvPr id="24" name="Picture 23" descr="000120.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1503,7 +1655,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Picture 24" descr="000154.jpg"/>
+        <xdr:cNvPr id="25" name="Picture 24" descr="000154.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1541,7 +1699,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Picture 25" descr="000093.jpg"/>
+        <xdr:cNvPr id="26" name="Picture 25" descr="000093.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1579,7 +1743,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Picture 26" descr="000156.jpg"/>
+        <xdr:cNvPr id="27" name="Picture 26" descr="000156.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1617,7 +1787,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Picture 27" descr="000118.jpg"/>
+        <xdr:cNvPr id="28" name="Picture 27" descr="000118.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1655,7 +1831,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Picture 28" descr="000091.jpg"/>
+        <xdr:cNvPr id="29" name="Picture 28" descr="000091.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1693,7 +1875,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Picture 29" descr="000075.jpg"/>
+        <xdr:cNvPr id="30" name="Picture 29" descr="000075.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1731,7 +1919,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Picture 30" descr="000048.jpg"/>
+        <xdr:cNvPr id="31" name="Picture 30" descr="000048.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1769,7 +1963,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Picture 31" descr="000164.jpg"/>
+        <xdr:cNvPr id="32" name="Picture 31" descr="000164.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1807,7 +2007,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Picture 32" descr="000050.jpg"/>
+        <xdr:cNvPr id="33" name="Picture 32" descr="000050.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1845,7 +2051,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Picture 33" descr="000112.jpg"/>
+        <xdr:cNvPr id="34" name="Picture 33" descr="000112.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1883,7 +2095,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Picture 34" descr="000052.jpg"/>
+        <xdr:cNvPr id="35" name="Picture 34" descr="000052.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1921,7 +2139,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Picture 35" descr="000043.jpg"/>
+        <xdr:cNvPr id="36" name="Picture 35" descr="000043.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1959,7 +2183,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Picture 36" descr="000115.jpg"/>
+        <xdr:cNvPr id="37" name="Picture 36" descr="000115.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1997,7 +2227,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="38" name="Picture 37" descr="000086.jpg"/>
+        <xdr:cNvPr id="38" name="Picture 37" descr="000086.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2035,7 +2271,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="39" name="Picture 38" descr="000037.jpg"/>
+        <xdr:cNvPr id="39" name="Picture 38" descr="000037.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2073,7 +2315,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Picture 39" descr="000014.jpg"/>
+        <xdr:cNvPr id="40" name="Picture 39" descr="000014.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2111,7 +2359,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Picture 40" descr="000057.jpg"/>
+        <xdr:cNvPr id="41" name="Picture 40" descr="000057.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2149,7 +2403,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="42" name="Picture 41" descr="000173.jpg"/>
+        <xdr:cNvPr id="42" name="Picture 41" descr="000173.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2187,7 +2447,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="43" name="Picture 42" descr="000019.jpg"/>
+        <xdr:cNvPr id="43" name="Picture 42" descr="000019.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2225,7 +2491,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="44" name="Picture 43" descr="000040.jpg"/>
+        <xdr:cNvPr id="44" name="Picture 43" descr="000040.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2263,7 +2535,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="45" name="Picture 44" descr="000069.jpg"/>
+        <xdr:cNvPr id="45" name="Picture 44" descr="000069.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2301,7 +2579,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="46" name="Picture 45" descr="000060.jpg"/>
+        <xdr:cNvPr id="46" name="Picture 45" descr="000060.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2339,7 +2623,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="47" name="Picture 46" descr="000046.jpg"/>
+        <xdr:cNvPr id="47" name="Picture 46" descr="000046.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00002F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2377,7 +2667,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="48" name="Picture 47" descr="000105.jpg"/>
+        <xdr:cNvPr id="48" name="Picture 47" descr="000105.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000030000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2415,7 +2711,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="49" name="Picture 48" descr="000132.jpg"/>
+        <xdr:cNvPr id="49" name="Picture 48" descr="000132.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000031000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2453,7 +2755,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Picture 49" descr="000136.jpg"/>
+        <xdr:cNvPr id="50" name="Picture 49" descr="000136.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000032000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2491,7 +2799,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="51" name="Picture 50" descr="000089.jpg"/>
+        <xdr:cNvPr id="51" name="Picture 50" descr="000089.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000033000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2529,7 +2843,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="52" name="Picture 51" descr="000161.jpg"/>
+        <xdr:cNvPr id="52" name="Picture 51" descr="000161.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000034000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2567,7 +2887,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="53" name="Picture 52" descr="000051.jpg"/>
+        <xdr:cNvPr id="53" name="Picture 52" descr="000051.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000035000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2605,7 +2931,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="54" name="Picture 53" descr="000072.jpg"/>
+        <xdr:cNvPr id="54" name="Picture 53" descr="000072.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000036000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2643,7 +2975,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="55" name="Picture 54" descr="000044.jpg"/>
+        <xdr:cNvPr id="55" name="Picture 54" descr="000044.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000037000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2681,7 +3019,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="56" name="Picture 55" descr="000078.jpg"/>
+        <xdr:cNvPr id="56" name="Picture 55" descr="000078.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000038000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2719,7 +3063,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="57" name="Picture 56" descr="000011.jpg"/>
+        <xdr:cNvPr id="57" name="Picture 56" descr="000011.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000039000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2757,7 +3107,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="58" name="Picture 57" descr="000128.jpg"/>
+        <xdr:cNvPr id="58" name="Picture 57" descr="000128.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2795,7 +3151,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="59" name="Picture 58" descr="000063.jpg"/>
+        <xdr:cNvPr id="59" name="Picture 58" descr="000063.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2833,7 +3195,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="60" name="Picture 59" descr="000002.jpg"/>
+        <xdr:cNvPr id="60" name="Picture 59" descr="000002.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2871,7 +3239,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="61" name="Picture 60" descr="000081.jpg"/>
+        <xdr:cNvPr id="61" name="Picture 60" descr="000081.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2909,7 +3283,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="62" name="Picture 61" descr="000041.jpg"/>
+        <xdr:cNvPr id="62" name="Picture 61" descr="000041.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2947,7 +3327,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="63" name="Picture 62" descr="000153.jpg"/>
+        <xdr:cNvPr id="63" name="Picture 62" descr="000153.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00003F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2985,7 +3371,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="64" name="Picture 63" descr="000003.jpg"/>
+        <xdr:cNvPr id="64" name="Picture 63" descr="000003.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000040000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3023,7 +3415,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="65" name="Picture 64" descr="000032.jpg"/>
+        <xdr:cNvPr id="65" name="Picture 64" descr="000032.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000041000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3061,7 +3459,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="66" name="Picture 65" descr="000025.jpg"/>
+        <xdr:cNvPr id="66" name="Picture 65" descr="000025.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000042000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3099,7 +3503,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="67" name="Picture 66" descr="000141.jpg"/>
+        <xdr:cNvPr id="67" name="Picture 66" descr="000141.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000043000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3137,7 +3547,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="68" name="Picture 67" descr="000067.jpg"/>
+        <xdr:cNvPr id="68" name="Picture 67" descr="000067.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000044000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3175,7 +3591,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="69" name="Picture 68" descr="000097.jpg"/>
+        <xdr:cNvPr id="69" name="Picture 68" descr="000097.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000045000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3213,7 +3635,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="70" name="Picture 69" descr="000012.jpg"/>
+        <xdr:cNvPr id="70" name="Picture 69" descr="000012.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000046000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3251,7 +3679,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="71" name="Picture 70" descr="000184.jpg"/>
+        <xdr:cNvPr id="71" name="Picture 70" descr="000184.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000047000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3289,7 +3723,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="72" name="Picture 71" descr="000058.jpg"/>
+        <xdr:cNvPr id="72" name="Picture 71" descr="000058.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000048000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3327,7 +3767,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="73" name="Picture 72" descr="000152.jpg"/>
+        <xdr:cNvPr id="73" name="Picture 72" descr="000152.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000049000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3365,7 +3811,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="74" name="Picture 73" descr="000018.jpg"/>
+        <xdr:cNvPr id="74" name="Picture 73" descr="000018.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3403,7 +3855,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="75" name="Picture 74" descr="000013.jpg"/>
+        <xdr:cNvPr id="75" name="Picture 74" descr="000013.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3441,7 +3899,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="76" name="Picture 75" descr="000129.jpg"/>
+        <xdr:cNvPr id="76" name="Picture 75" descr="000129.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3479,7 +3943,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="77" name="Picture 76" descr="000131.jpg"/>
+        <xdr:cNvPr id="77" name="Picture 76" descr="000131.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3517,7 +3987,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="78" name="Picture 77" descr="000151.jpg"/>
+        <xdr:cNvPr id="78" name="Picture 77" descr="000151.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3555,7 +4031,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="79" name="Picture 78" descr="000068.jpg"/>
+        <xdr:cNvPr id="79" name="Picture 78" descr="000068.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00004F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3593,7 +4075,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="80" name="Picture 79" descr="000017.jpg"/>
+        <xdr:cNvPr id="80" name="Picture 79" descr="000017.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000050000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3631,7 +4119,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="81" name="Picture 80" descr="000149.jpg"/>
+        <xdr:cNvPr id="81" name="Picture 80" descr="000149.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000051000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3669,7 +4163,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="82" name="Picture 81" descr="000008.jpg"/>
+        <xdr:cNvPr id="82" name="Picture 81" descr="000008.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000052000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3707,7 +4207,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="83" name="Picture 82" descr="000035.jpg"/>
+        <xdr:cNvPr id="83" name="Picture 82" descr="000035.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000053000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3745,7 +4251,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="84" name="Picture 83" descr="000108.jpg"/>
+        <xdr:cNvPr id="84" name="Picture 83" descr="000108.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000054000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3783,7 +4295,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="85" name="Picture 84" descr="000005.jpg"/>
+        <xdr:cNvPr id="85" name="Picture 84" descr="000005.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000055000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3821,7 +4339,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="86" name="Picture 85" descr="000172.jpg"/>
+        <xdr:cNvPr id="86" name="Picture 85" descr="000172.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000056000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3859,7 +4383,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="87" name="Picture 86" descr="000163.jpg"/>
+        <xdr:cNvPr id="87" name="Picture 86" descr="000163.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000057000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3897,7 +4427,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="88" name="Picture 87" descr="000139.jpg"/>
+        <xdr:cNvPr id="88" name="Picture 87" descr="000139.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000058000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3935,7 +4471,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="89" name="Picture 88" descr="000130.jpg"/>
+        <xdr:cNvPr id="89" name="Picture 88" descr="000130.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000059000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -3973,7 +4515,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="90" name="Picture 89" descr="000159.jpg"/>
+        <xdr:cNvPr id="90" name="Picture 89" descr="000159.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4011,7 +4559,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="91" name="Picture 90" descr="000167.jpg"/>
+        <xdr:cNvPr id="91" name="Picture 90" descr="000167.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4049,7 +4603,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="92" name="Picture 91" descr="000070.jpg"/>
+        <xdr:cNvPr id="92" name="Picture 91" descr="000070.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4087,7 +4647,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="93" name="Picture 92" descr="000179.jpg"/>
+        <xdr:cNvPr id="93" name="Picture 92" descr="000179.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4125,7 +4691,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="94" name="Picture 93" descr="000001.jpg"/>
+        <xdr:cNvPr id="94" name="Picture 93" descr="000001.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4163,7 +4735,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="95" name="Picture 94" descr="000085.jpg"/>
+        <xdr:cNvPr id="95" name="Picture 94" descr="000085.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00005F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4201,7 +4779,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="96" name="Picture 95" descr="000111.jpg"/>
+        <xdr:cNvPr id="96" name="Picture 95" descr="000111.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000060000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4239,7 +4823,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="97" name="Picture 96" descr="000127.jpg"/>
+        <xdr:cNvPr id="97" name="Picture 96" descr="000127.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000061000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4277,7 +4867,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="98" name="Picture 97" descr="000104.jpg"/>
+        <xdr:cNvPr id="98" name="Picture 97" descr="000104.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000062000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4315,7 +4911,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="99" name="Picture 98" descr="000099.jpg"/>
+        <xdr:cNvPr id="99" name="Picture 98" descr="000099.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000063000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4353,7 +4955,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="100" name="Picture 99" descr="000137.jpg"/>
+        <xdr:cNvPr id="100" name="Picture 99" descr="000137.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000064000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4391,7 +4999,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="101" name="Picture 100" descr="000006.jpg"/>
+        <xdr:cNvPr id="101" name="Picture 100" descr="000006.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000065000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4429,7 +5043,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="102" name="Picture 101" descr="000062.jpg"/>
+        <xdr:cNvPr id="102" name="Picture 101" descr="000062.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000066000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4467,7 +5087,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="103" name="Picture 102" descr="000140.jpg"/>
+        <xdr:cNvPr id="103" name="Picture 102" descr="000140.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000067000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4505,7 +5131,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="104" name="Picture 103" descr="000023.jpg"/>
+        <xdr:cNvPr id="104" name="Picture 103" descr="000023.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000068000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4543,7 +5175,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="105" name="Picture 104" descr="000026.jpg"/>
+        <xdr:cNvPr id="105" name="Picture 104" descr="000026.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000069000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4581,7 +5219,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="106" name="Picture 105" descr="000166.jpg"/>
+        <xdr:cNvPr id="106" name="Picture 105" descr="000166.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4619,7 +5263,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="107" name="Picture 106" descr="000134.jpg"/>
+        <xdr:cNvPr id="107" name="Picture 106" descr="000134.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4657,7 +5307,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="108" name="Picture 107" descr="000171.jpg"/>
+        <xdr:cNvPr id="108" name="Picture 107" descr="000171.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4695,7 +5351,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="109" name="Picture 108" descr="000036.jpg"/>
+        <xdr:cNvPr id="109" name="Picture 108" descr="000036.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4733,7 +5395,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="110" name="Picture 109" descr="000157.jpg"/>
+        <xdr:cNvPr id="110" name="Picture 109" descr="000157.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4771,7 +5439,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="111" name="Picture 110" descr="000010.jpg"/>
+        <xdr:cNvPr id="111" name="Picture 110" descr="000010.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00006F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4809,7 +5483,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="112" name="Picture 111" descr="000114.jpg"/>
+        <xdr:cNvPr id="112" name="Picture 111" descr="000114.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000070000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4847,7 +5527,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="113" name="Picture 112" descr="000083.jpg"/>
+        <xdr:cNvPr id="113" name="Picture 112" descr="000083.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000071000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4885,7 +5571,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="114" name="Picture 113" descr="000119.jpg"/>
+        <xdr:cNvPr id="114" name="Picture 113" descr="000119.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000072000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4923,7 +5615,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="115" name="Picture 114" descr="000039.jpg"/>
+        <xdr:cNvPr id="115" name="Picture 114" descr="000039.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000073000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4961,7 +5659,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="116" name="Picture 115" descr="000059.jpg"/>
+        <xdr:cNvPr id="116" name="Picture 115" descr="000059.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000074000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -4999,7 +5703,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="117" name="Picture 116" descr="000110.jpg"/>
+        <xdr:cNvPr id="117" name="Picture 116" descr="000110.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000075000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5037,7 +5747,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="118" name="Picture 117" descr="000135.jpg"/>
+        <xdr:cNvPr id="118" name="Picture 117" descr="000135.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000076000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5075,7 +5791,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="119" name="Picture 118" descr="000113.jpg"/>
+        <xdr:cNvPr id="119" name="Picture 118" descr="000113.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000077000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5113,7 +5835,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="120" name="Picture 119" descr="000170.jpg"/>
+        <xdr:cNvPr id="120" name="Picture 119" descr="000170.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000078000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5151,7 +5879,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="121" name="Picture 120" descr="000004.jpg"/>
+        <xdr:cNvPr id="121" name="Picture 120" descr="000004.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000079000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5189,7 +5923,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="122" name="Picture 121" descr="000084.jpg"/>
+        <xdr:cNvPr id="122" name="Picture 121" descr="000084.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5227,7 +5967,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="123" name="Picture 122" descr="000092.jpg"/>
+        <xdr:cNvPr id="123" name="Picture 122" descr="000092.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5265,7 +6011,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="124" name="Picture 123" descr="000033.jpg"/>
+        <xdr:cNvPr id="124" name="Picture 123" descr="000033.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5303,7 +6055,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="125" name="Picture 124" descr="000034.jpg"/>
+        <xdr:cNvPr id="125" name="Picture 124" descr="000034.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5341,7 +6099,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="126" name="Picture 125" descr="000061.jpg"/>
+        <xdr:cNvPr id="126" name="Picture 125" descr="000061.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5379,7 +6143,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="127" name="Picture 126" descr="000160.jpg"/>
+        <xdr:cNvPr id="127" name="Picture 126" descr="000160.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00007F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5417,7 +6187,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="128" name="Picture 127" descr="000028.jpg"/>
+        <xdr:cNvPr id="128" name="Picture 127" descr="000028.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000080000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5455,7 +6231,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="129" name="Picture 128" descr="000082.jpg"/>
+        <xdr:cNvPr id="129" name="Picture 128" descr="000082.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000081000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5493,7 +6275,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="130" name="Picture 129" descr="000178.jpg"/>
+        <xdr:cNvPr id="130" name="Picture 129" descr="000178.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000082000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5531,7 +6319,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="131" name="Picture 130" descr="000098.jpg"/>
+        <xdr:cNvPr id="131" name="Picture 130" descr="000098.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000083000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5569,7 +6363,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="132" name="Picture 131" descr="000180.jpg"/>
+        <xdr:cNvPr id="132" name="Picture 131" descr="000180.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000084000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5607,7 +6407,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="133" name="Picture 132" descr="000176.jpg"/>
+        <xdr:cNvPr id="133" name="Picture 132" descr="000176.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000085000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5645,7 +6451,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="134" name="Picture 133" descr="000030.jpg"/>
+        <xdr:cNvPr id="134" name="Picture 133" descr="000030.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000086000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5683,7 +6495,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="135" name="Picture 134" descr="000045.jpg"/>
+        <xdr:cNvPr id="135" name="Picture 134" descr="000045.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000087000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5721,7 +6539,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="136" name="Picture 135" descr="000080.jpg"/>
+        <xdr:cNvPr id="136" name="Picture 135" descr="000080.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000088000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5759,7 +6583,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="137" name="Picture 136" descr="000117.jpg"/>
+        <xdr:cNvPr id="137" name="Picture 136" descr="000117.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000089000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5797,7 +6627,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="138" name="Picture 137" descr="000181.jpg"/>
+        <xdr:cNvPr id="138" name="Picture 137" descr="000181.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5835,7 +6671,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="139" name="Picture 138" descr="000074.jpg"/>
+        <xdr:cNvPr id="139" name="Picture 138" descr="000074.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5873,7 +6715,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="140" name="Picture 139" descr="000029.jpg"/>
+        <xdr:cNvPr id="140" name="Picture 139" descr="000029.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5911,7 +6759,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="141" name="Picture 140" descr="000103.jpg"/>
+        <xdr:cNvPr id="141" name="Picture 140" descr="000103.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5949,7 +6803,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="142" name="Picture 141" descr="000155.jpg"/>
+        <xdr:cNvPr id="142" name="Picture 141" descr="000155.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -5987,7 +6847,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="143" name="Picture 142" descr="000064.jpg"/>
+        <xdr:cNvPr id="143" name="Picture 142" descr="000064.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00008F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6025,7 +6891,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="144" name="Picture 143" descr="000121.jpg"/>
+        <xdr:cNvPr id="144" name="Picture 143" descr="000121.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000090000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6063,7 +6935,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="145" name="Picture 144" descr="000133.jpg"/>
+        <xdr:cNvPr id="145" name="Picture 144" descr="000133.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000091000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6101,7 +6979,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="146" name="Picture 145" descr="000042.jpg"/>
+        <xdr:cNvPr id="146" name="Picture 145" descr="000042.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000092000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6139,7 +7023,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="147" name="Picture 146" descr="000109.jpg"/>
+        <xdr:cNvPr id="147" name="Picture 146" descr="000109.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000093000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6177,7 +7067,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="148" name="Picture 147" descr="000138.jpg"/>
+        <xdr:cNvPr id="148" name="Picture 147" descr="000138.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000094000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6215,7 +7111,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="149" name="Picture 148" descr="000031.jpg"/>
+        <xdr:cNvPr id="149" name="Picture 148" descr="000031.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000095000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6253,7 +7155,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="150" name="Picture 149" descr="000073.jpg"/>
+        <xdr:cNvPr id="150" name="Picture 149" descr="000073.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000096000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6291,7 +7199,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="151" name="Picture 150" descr="000021.jpg"/>
+        <xdr:cNvPr id="151" name="Picture 150" descr="000021.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000097000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6329,7 +7243,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="152" name="Picture 151" descr="000122.jpg"/>
+        <xdr:cNvPr id="152" name="Picture 151" descr="000122.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000098000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6367,7 +7287,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="153" name="Picture 152" descr="000094.jpg"/>
+        <xdr:cNvPr id="153" name="Picture 152" descr="000094.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000099000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6405,7 +7331,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="154" name="Picture 153" descr="000022.jpg"/>
+        <xdr:cNvPr id="154" name="Picture 153" descr="000022.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009A000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6443,7 +7375,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="155" name="Picture 154" descr="000101.jpg"/>
+        <xdr:cNvPr id="155" name="Picture 154" descr="000101.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009B000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6481,7 +7419,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="156" name="Picture 155" descr="000047.jpg"/>
+        <xdr:cNvPr id="156" name="Picture 155" descr="000047.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009C000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6519,7 +7463,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="157" name="Picture 156" descr="000055.jpg"/>
+        <xdr:cNvPr id="157" name="Picture 156" descr="000055.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009D000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6557,7 +7507,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="158" name="Picture 157" descr="000049.jpg"/>
+        <xdr:cNvPr id="158" name="Picture 157" descr="000049.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009E000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6595,7 +7551,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="159" name="Picture 158" descr="000175.jpg"/>
+        <xdr:cNvPr id="159" name="Picture 158" descr="000175.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00009F000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6633,7 +7595,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="160" name="Picture 159" descr="000096.jpg"/>
+        <xdr:cNvPr id="160" name="Picture 159" descr="000096.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6671,7 +7639,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="161" name="Picture 160" descr="000076.jpg"/>
+        <xdr:cNvPr id="161" name="Picture 160" descr="000076.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6709,7 +7683,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="162" name="Picture 161" descr="000125.jpg"/>
+        <xdr:cNvPr id="162" name="Picture 161" descr="000125.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6747,7 +7727,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="163" name="Picture 162" descr="000038.jpg"/>
+        <xdr:cNvPr id="163" name="Picture 162" descr="000038.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6785,7 +7771,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="164" name="Picture 163" descr="000016.jpg"/>
+        <xdr:cNvPr id="164" name="Picture 163" descr="000016.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6823,7 +7815,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="165" name="Picture 164" descr="000087.jpg"/>
+        <xdr:cNvPr id="165" name="Picture 164" descr="000087.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6861,7 +7859,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="166" name="Picture 165" descr="000027.jpg"/>
+        <xdr:cNvPr id="166" name="Picture 165" descr="000027.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6899,7 +7903,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="167" name="Picture 166" descr="000106.jpg"/>
+        <xdr:cNvPr id="167" name="Picture 166" descr="000106.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6937,7 +7947,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="168" name="Picture 167" descr="000143.jpg"/>
+        <xdr:cNvPr id="168" name="Picture 167" descr="000143.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -6975,7 +7991,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="169" name="Picture 168" descr="000145.jpg"/>
+        <xdr:cNvPr id="169" name="Picture 168" descr="000145.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000A9000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7013,7 +8035,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="170" name="Picture 169" descr="000090.jpg"/>
+        <xdr:cNvPr id="170" name="Picture 169" descr="000090.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AA000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7051,7 +8079,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="171" name="Picture 170" descr="000126.jpg"/>
+        <xdr:cNvPr id="171" name="Picture 170" descr="000126.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AB000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7089,7 +8123,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="172" name="Picture 171" descr="000183.jpg"/>
+        <xdr:cNvPr id="172" name="Picture 171" descr="000183.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AC000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7127,7 +8167,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="173" name="Picture 172" descr="000162.jpg"/>
+        <xdr:cNvPr id="173" name="Picture 172" descr="000162.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AD000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7165,7 +8211,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="174" name="Picture 173" descr="000100.jpg"/>
+        <xdr:cNvPr id="174" name="Picture 173" descr="000100.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AE000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7203,7 +8255,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="175" name="Picture 174" descr="000169.jpg"/>
+        <xdr:cNvPr id="175" name="Picture 174" descr="000169.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000AF000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7241,7 +8299,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="176" name="Picture 175" descr="000123.jpg"/>
+        <xdr:cNvPr id="176" name="Picture 175" descr="000123.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B0000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7279,7 +8343,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="177" name="Picture 176" descr="000182.jpg"/>
+        <xdr:cNvPr id="177" name="Picture 176" descr="000182.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B1000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7317,7 +8387,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="178" name="Picture 177" descr="000150.jpg"/>
+        <xdr:cNvPr id="178" name="Picture 177" descr="000150.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B2000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7355,7 +8431,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="179" name="Picture 178" descr="000065.jpg"/>
+        <xdr:cNvPr id="179" name="Picture 178" descr="000065.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B3000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7393,7 +8475,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="180" name="Picture 179" descr="000024.jpg"/>
+        <xdr:cNvPr id="180" name="Picture 179" descr="000024.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B4000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7431,7 +8519,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="181" name="Picture 180" descr="000054.jpg"/>
+        <xdr:cNvPr id="181" name="Picture 180" descr="000054.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B5000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7469,7 +8563,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="182" name="Picture 181" descr="000007.jpg"/>
+        <xdr:cNvPr id="182" name="Picture 181" descr="000007.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B6000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7507,7 +8607,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="183" name="Picture 182" descr="000102.jpg"/>
+        <xdr:cNvPr id="183" name="Picture 182" descr="000102.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B7000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7545,7 +8651,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="184" name="Picture 183" descr="000020.jpg"/>
+        <xdr:cNvPr id="184" name="Picture 183" descr="000020.jpg">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-0000B8000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -7614,7 +8726,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7646,9 +8758,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -7680,6 +8810,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -7855,933 +9003,935 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A184"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="30.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" customWidth="1"/>
+    <col min="1" max="1" width="30.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" ht="92" customHeight="1">
+    <row r="1" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="92" customHeight="1">
+    <row r="2" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:1" ht="92" customHeight="1">
+    <row r="3" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:1" ht="92" customHeight="1">
+    <row r="4" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:1" ht="92" customHeight="1">
+    <row r="5" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:1" ht="92" customHeight="1">
+    <row r="6" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="92" customHeight="1">
+    <row r="7" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="92" customHeight="1">
+    <row r="8" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="92" customHeight="1">
+    <row r="9" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="92" customHeight="1">
+    <row r="10" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="92" customHeight="1">
+    <row r="11" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="92" customHeight="1">
+    <row r="12" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="92" customHeight="1">
+    <row r="13" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:1" ht="92" customHeight="1">
+    <row r="14" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:1" ht="92" customHeight="1">
+    <row r="15" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:1" ht="92" customHeight="1">
+    <row r="16" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:1" ht="92" customHeight="1">
+    <row r="17" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:1" ht="92" customHeight="1">
+    <row r="18" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:1" ht="92" customHeight="1">
+    <row r="19" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:1" ht="92" customHeight="1">
+    <row r="20" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:1" ht="92" customHeight="1">
+    <row r="21" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:1" ht="92" customHeight="1">
+    <row r="22" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:1" ht="92" customHeight="1">
+    <row r="23" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:1" ht="92" customHeight="1">
+    <row r="24" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:1" ht="92" customHeight="1">
+    <row r="25" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:1" ht="92" customHeight="1">
+    <row r="26" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:1" ht="92" customHeight="1">
+    <row r="27" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="28" spans="1:1" ht="92" customHeight="1">
+    <row r="28" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="29" spans="1:1" ht="92" customHeight="1">
+    <row r="29" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="92" customHeight="1">
+    <row r="30" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="31" spans="1:1" ht="92" customHeight="1">
+    <row r="31" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="32" spans="1:1" ht="92" customHeight="1">
+    <row r="32" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="33" spans="1:1" ht="92" customHeight="1">
+    <row r="33" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="34" spans="1:1" ht="92" customHeight="1">
+    <row r="34" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="92" customHeight="1">
+    <row r="35" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="36" spans="1:1" ht="92" customHeight="1">
+    <row r="36" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="92" customHeight="1">
+    <row r="37" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="38" spans="1:1" ht="92" customHeight="1">
+    <row r="38" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="39" spans="1:1" ht="92" customHeight="1">
+    <row r="39" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="40" spans="1:1" ht="92" customHeight="1">
+    <row r="40" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="1:1" ht="92" customHeight="1">
+    <row r="41" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="42" spans="1:1" ht="92" customHeight="1">
+    <row r="42" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="43" spans="1:1" ht="92" customHeight="1">
+    <row r="43" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="44" spans="1:1" ht="92" customHeight="1">
+    <row r="44" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="45" spans="1:1" ht="92" customHeight="1">
+    <row r="45" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="46" spans="1:1" ht="92" customHeight="1">
+    <row r="46" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="47" spans="1:1" ht="92" customHeight="1">
+    <row r="47" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="48" spans="1:1" ht="92" customHeight="1">
+    <row r="48" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="92" customHeight="1">
+    <row r="49" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="50" spans="1:1" ht="92" customHeight="1">
+    <row r="50" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="51" spans="1:1" ht="92" customHeight="1">
+    <row r="51" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="52" spans="1:1" ht="92" customHeight="1">
+    <row r="52" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="53" spans="1:1" ht="92" customHeight="1">
+    <row r="53" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="54" spans="1:1" ht="92" customHeight="1">
+    <row r="54" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:1" ht="92" customHeight="1">
+    <row r="55" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="56" spans="1:1" ht="92" customHeight="1">
+    <row r="56" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="57" spans="1:1" ht="92" customHeight="1">
+    <row r="57" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="58" spans="1:1" ht="92" customHeight="1">
+    <row r="58" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="92" customHeight="1">
+    <row r="59" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="60" spans="1:1" ht="92" customHeight="1">
+    <row r="60" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="61" spans="1:1" ht="92" customHeight="1">
+    <row r="61" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="62" spans="1:1" ht="92" customHeight="1">
+    <row r="62" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="63" spans="1:1" ht="92" customHeight="1">
+    <row r="63" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="64" spans="1:1" ht="92" customHeight="1">
+    <row r="64" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="65" spans="1:1" ht="92" customHeight="1">
+    <row r="65" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="66" spans="1:1" ht="92" customHeight="1">
+    <row r="66" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="67" spans="1:1" ht="92" customHeight="1">
+    <row r="67" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="68" spans="1:1" ht="92" customHeight="1">
+    <row r="68" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="69" spans="1:1" ht="92" customHeight="1">
+    <row r="69" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="70" spans="1:1" ht="92" customHeight="1">
+    <row r="70" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="71" spans="1:1" ht="92" customHeight="1">
+    <row r="71" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="72" spans="1:1" ht="92" customHeight="1">
+    <row r="72" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:1" ht="92" customHeight="1">
+    <row r="73" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="74" spans="1:1" ht="92" customHeight="1">
+    <row r="74" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="75" spans="1:1" ht="92" customHeight="1">
+    <row r="75" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="76" spans="1:1" ht="92" customHeight="1">
+    <row r="76" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="77" spans="1:1" ht="92" customHeight="1">
+    <row r="77" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="78" spans="1:1" ht="92" customHeight="1">
+    <row r="78" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="79" spans="1:1" ht="92" customHeight="1">
+    <row r="79" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:1" ht="92" customHeight="1">
+    <row r="80" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:1" ht="92" customHeight="1">
+    <row r="81" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="82" spans="1:1" ht="92" customHeight="1">
+    <row r="82" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="83" spans="1:1" ht="92" customHeight="1">
+    <row r="83" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="84" spans="1:1" ht="92" customHeight="1">
+    <row r="84" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="85" spans="1:1" ht="92" customHeight="1">
+    <row r="85" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="86" spans="1:1" ht="92" customHeight="1">
+    <row r="86" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="87" spans="1:1" ht="92" customHeight="1">
+    <row r="87" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="88" spans="1:1" ht="92" customHeight="1">
+    <row r="88" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="89" spans="1:1" ht="92" customHeight="1">
+    <row r="89" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="90" spans="1:1" ht="92" customHeight="1">
+    <row r="90" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="91" spans="1:1" ht="92" customHeight="1">
+    <row r="91" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="92" spans="1:1" ht="92" customHeight="1">
+    <row r="92" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="93" spans="1:1" ht="92" customHeight="1">
+    <row r="93" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="94" spans="1:1" ht="92" customHeight="1">
+    <row r="94" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="95" spans="1:1" ht="92" customHeight="1">
+    <row r="95" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="96" spans="1:1" ht="92" customHeight="1">
+    <row r="96" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="97" spans="1:1" ht="92" customHeight="1">
+    <row r="97" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="98" spans="1:1" ht="92" customHeight="1">
+    <row r="98" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
         <v>97</v>
       </c>
     </row>
-    <row r="99" spans="1:1" ht="92" customHeight="1">
+    <row r="99" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="100" spans="1:1" ht="92" customHeight="1">
+    <row r="100" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="101" spans="1:1" ht="92" customHeight="1">
+    <row r="101" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="102" spans="1:1" ht="92" customHeight="1">
+    <row r="102" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="103" spans="1:1" ht="92" customHeight="1">
+    <row r="103" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="104" spans="1:1" ht="92" customHeight="1">
+    <row r="104" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="105" spans="1:1" ht="92" customHeight="1">
+    <row r="105" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="106" spans="1:1" ht="92" customHeight="1">
+    <row r="106" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="107" spans="1:1" ht="92" customHeight="1">
+    <row r="107" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="108" spans="1:1" ht="92" customHeight="1">
+    <row r="108" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="109" spans="1:1" ht="92" customHeight="1">
+    <row r="109" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="110" spans="1:1" ht="92" customHeight="1">
+    <row r="110" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="111" spans="1:1" ht="92" customHeight="1">
+    <row r="111" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="112" spans="1:1" ht="92" customHeight="1">
+    <row r="112" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="113" spans="1:1" ht="92" customHeight="1">
+    <row r="113" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="114" spans="1:1" ht="92" customHeight="1">
+    <row r="114" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:1" ht="92" customHeight="1">
+    <row r="115" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="116" spans="1:1" ht="92" customHeight="1">
+    <row r="116" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="117" spans="1:1" ht="92" customHeight="1">
+    <row r="117" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="118" spans="1:1" ht="92" customHeight="1">
+    <row r="118" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="119" spans="1:1" ht="92" customHeight="1">
+    <row r="119" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="120" spans="1:1" ht="92" customHeight="1">
+    <row r="120" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="121" spans="1:1" ht="92" customHeight="1">
+    <row r="121" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
         <v>120</v>
       </c>
     </row>
-    <row r="122" spans="1:1" ht="92" customHeight="1">
+    <row r="122" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="123" spans="1:1" ht="92" customHeight="1">
+    <row r="123" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="124" spans="1:1" ht="92" customHeight="1">
+    <row r="124" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="125" spans="1:1" ht="92" customHeight="1">
+    <row r="125" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="126" spans="1:1" ht="92" customHeight="1">
+    <row r="126" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="127" spans="1:1" ht="92" customHeight="1">
+    <row r="127" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="128" spans="1:1" ht="92" customHeight="1">
+    <row r="128" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="129" spans="1:1" ht="92" customHeight="1">
+    <row r="129" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="130" spans="1:1" ht="92" customHeight="1">
+    <row r="130" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
         <v>129</v>
       </c>
     </row>
-    <row r="131" spans="1:1" ht="92" customHeight="1">
+    <row r="131" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="132" spans="1:1" ht="92" customHeight="1">
+    <row r="132" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
         <v>131</v>
       </c>
     </row>
-    <row r="133" spans="1:1" ht="92" customHeight="1">
+    <row r="133" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="134" spans="1:1" ht="92" customHeight="1">
+    <row r="134" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
         <v>133</v>
       </c>
     </row>
-    <row r="135" spans="1:1" ht="92" customHeight="1">
+    <row r="135" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="136" spans="1:1" ht="92" customHeight="1">
+    <row r="136" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="137" spans="1:1" ht="92" customHeight="1">
+    <row r="137" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="138" spans="1:1" ht="92" customHeight="1">
+    <row r="138" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="139" spans="1:1" ht="92" customHeight="1">
+    <row r="139" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="140" spans="1:1" ht="92" customHeight="1">
+    <row r="140" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="141" spans="1:1" ht="92" customHeight="1">
+    <row r="141" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="142" spans="1:1" ht="92" customHeight="1">
+    <row r="142" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="143" spans="1:1" ht="92" customHeight="1">
+    <row r="143" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="144" spans="1:1" ht="92" customHeight="1">
+    <row r="144" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="145" spans="1:1" ht="92" customHeight="1">
+    <row r="145" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="146" spans="1:1" ht="92" customHeight="1">
+    <row r="146" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="147" spans="1:1" ht="92" customHeight="1">
+    <row r="147" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="148" spans="1:1" ht="92" customHeight="1">
+    <row r="148" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="149" spans="1:1" ht="92" customHeight="1">
+    <row r="149" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="150" spans="1:1" ht="92" customHeight="1">
+    <row r="150" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="151" spans="1:1" ht="92" customHeight="1">
+    <row r="151" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="152" spans="1:1" ht="92" customHeight="1">
+    <row r="152" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="153" spans="1:1" ht="92" customHeight="1">
+    <row r="153" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:1" ht="92" customHeight="1">
+    <row r="154" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:1" ht="92" customHeight="1">
+    <row r="155" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="1" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="156" spans="1:1" ht="92" customHeight="1">
+    <row r="156" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="1" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="157" spans="1:1" ht="92" customHeight="1">
+    <row r="157" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="158" spans="1:1" ht="92" customHeight="1">
+    <row r="158" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="1" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:1" ht="92" customHeight="1">
+    <row r="159" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="1" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:1" ht="92" customHeight="1">
+    <row r="160" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="1" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="161" spans="1:1" ht="92" customHeight="1">
+    <row r="161" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="1" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="162" spans="1:1" ht="92" customHeight="1">
+    <row r="162" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="1" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="163" spans="1:1" ht="92" customHeight="1">
+    <row r="163" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="1" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:1" ht="92" customHeight="1">
+    <row r="164" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="1" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="165" spans="1:1" ht="92" customHeight="1">
+    <row r="165" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="1" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="166" spans="1:1" ht="92" customHeight="1">
+    <row r="166" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="1" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="167" spans="1:1" ht="92" customHeight="1">
+    <row r="167" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="1" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="168" spans="1:1" ht="92" customHeight="1">
+    <row r="168" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="1" t="s">
         <v>167</v>
       </c>
     </row>
-    <row r="169" spans="1:1" ht="92" customHeight="1">
+    <row r="169" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="1" t="s">
         <v>168</v>
       </c>
     </row>
-    <row r="170" spans="1:1" ht="92" customHeight="1">
+    <row r="170" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="1" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="171" spans="1:1" ht="92" customHeight="1">
+    <row r="171" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="1" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="172" spans="1:1" ht="92" customHeight="1">
+    <row r="172" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="1" t="s">
         <v>171</v>
       </c>
     </row>
-    <row r="173" spans="1:1" ht="92" customHeight="1">
+    <row r="173" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="1" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="174" spans="1:1" ht="92" customHeight="1">
+    <row r="174" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="1" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="175" spans="1:1" ht="92" customHeight="1">
+    <row r="175" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="1" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="176" spans="1:1" ht="92" customHeight="1">
+    <row r="176" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="177" spans="1:1" ht="92" customHeight="1">
+    <row r="177" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="1" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="178" spans="1:1" ht="92" customHeight="1">
+    <row r="178" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="1" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:1" ht="92" customHeight="1">
+    <row r="179" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="1" t="s">
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:1" ht="92" customHeight="1">
+    <row r="180" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="1" t="s">
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:1" ht="92" customHeight="1">
+    <row r="181" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="1" t="s">
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:1" ht="92" customHeight="1">
+    <row r="182" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="1" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="183" spans="1:1" ht="92" customHeight="1">
+    <row r="183" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="1" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="184" spans="1:1" ht="92" customHeight="1"/>
+    <row r="184" spans="1:1" ht="92" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
